--- a/doc/uniform_delay.xlsx
+++ b/doc/uniform_delay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22463" windowHeight="9047"/>
+    <workbookView windowWidth="22368" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>per hour</t>
+  </si>
+  <si>
+    <t>per second</t>
+  </si>
   <si>
     <t>mu</t>
   </si>
@@ -29,6 +35,15 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>lambda/mu</t>
+  </si>
+  <si>
+    <t>Total W</t>
+  </si>
+  <si>
+    <t>verify</t>
   </si>
   <si>
     <t>W_bar</t>
@@ -48,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,14 +78,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,11 +123,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,25 +145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,73 +163,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,25 +230,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,157 +356,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,39 +421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,17 +439,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,11 +465,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,12 +510,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,130 +544,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -669,12 +684,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -725,16 +740,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:rowOff>130810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114935</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -751,7 +766,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3177540" y="635"/>
+          <a:off x="5074920" y="130810"/>
           <a:ext cx="6134100" cy="5052060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -761,6 +776,42 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>77470</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92710</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="77470" y="3757930"/>
+          <a:ext cx="4922520" cy="2270760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1026,56 +1077,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10:D17"/>
+  <dimension ref="A9:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="4" width="12.8888888888889"/>
+    <col min="1" max="1" width="11.1111111111111" customWidth="1"/>
+    <col min="2" max="5" width="12.8888888888889"/>
   </cols>
   <sheetData>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1530</v>
+        <v>1440</v>
       </c>
       <c r="C10">
         <f>B10/60/60</f>
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C11">
         <f>B11/60/60</f>
-        <v>0.194444444444444</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="D11">
-        <f>B11/60</f>
-        <v>11.6666666666667</v>
+        <f>C11*B13</f>
+        <v>8.33333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>60</v>
@@ -1083,42 +1143,67 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <f>B13-B12</f>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <f>0.5*C10*B14*B14/((C10-C11)*B13)</f>
-        <v>6.14457831325301</v>
-      </c>
-      <c r="D16" t="s">
         <v>7</v>
       </c>
+      <c r="B16">
+        <f>B11/B10</f>
+        <v>0.347222222222222</v>
+      </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
+      <c r="B17">
+        <f>0.5*C11*B14*B14/(1-C11/C10)</f>
+        <v>130.31914893617</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <f>0.5*C10*B14*B14/((C10-C11)*B13)</f>
+        <v>15.6382978723404</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <f>B17/D11</f>
+        <v>15.6382978723404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
         <f>B10*B12/B13</f>
-        <v>1020</v>
-      </c>
-      <c r="D17">
-        <f>C17/60</f>
-        <v>17</v>
+        <v>600</v>
+      </c>
+      <c r="D19">
+        <f>C19/60</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
